--- a/names_and_sign_ins.xlsx
+++ b/names_and_sign_ins.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64384\PycharmProjects\ELEC498\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57A64-1C9D-419E-B029-B12143BC26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,9 +28,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Sign-in Count</t>
-  </si>
-  <si>
     <t>James Smith</t>
   </si>
   <si>
@@ -113,13 +116,16 @@
   </si>
   <si>
     <t>Natalie Young</t>
+  </si>
+  <si>
+    <t>Sign-in-Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +188,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,9 +309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +485,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,334 +502,334 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>4</v>

--- a/names_and_sign_ins.xlsx
+++ b/names_and_sign_ins.xlsx
@@ -1,131 +1,209 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64384\PycharmProjects\ELEC498\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57A64-1C9D-419E-B029-B12143BC26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>James Smith</t>
-  </si>
-  <si>
-    <t>Olivia Johnson</t>
-  </si>
-  <si>
-    <t>Emma Williams</t>
-  </si>
-  <si>
-    <t>Ava Brown</t>
-  </si>
-  <si>
-    <t>Sophia Jones</t>
-  </si>
-  <si>
-    <t>Isabella Miller</t>
-  </si>
-  <si>
-    <t>Mia Davis</t>
-  </si>
-  <si>
-    <t>Charlotte Garcia</t>
-  </si>
-  <si>
-    <t>Amelia Rodriguez</t>
-  </si>
-  <si>
-    <t>Harper Martinez</t>
-  </si>
-  <si>
-    <t>Evelyn Hernandez</t>
-  </si>
-  <si>
-    <t>Abigail Moore</t>
-  </si>
-  <si>
-    <t>Emily Taylor</t>
-  </si>
-  <si>
-    <t>Elizabeth Anderson</t>
-  </si>
-  <si>
-    <t>Sofia Thomas</t>
-  </si>
-  <si>
-    <t>Avery Jackson</t>
-  </si>
-  <si>
-    <t>Ella White</t>
-  </si>
-  <si>
-    <t>Scarlett Harris</t>
-  </si>
-  <si>
-    <t>Grace Martin</t>
-  </si>
-  <si>
-    <t>Chloe Thompson</t>
-  </si>
-  <si>
-    <t>Madison Garcia</t>
-  </si>
-  <si>
-    <t>Eleanor Martinez</t>
-  </si>
-  <si>
-    <t>Penelope Robinson</t>
-  </si>
-  <si>
-    <t>Lily Clark</t>
-  </si>
-  <si>
-    <t>Nora Rodriguez</t>
-  </si>
-  <si>
-    <t>Riley Lewis</t>
-  </si>
-  <si>
-    <t>Zoey Walker</t>
-  </si>
-  <si>
-    <t>Victoria Hall</t>
-  </si>
-  <si>
-    <t>Hazel Allen</t>
-  </si>
-  <si>
-    <t>Natalie Young</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
   <si>
     <t>Sign-in-Count</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Zoey</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Hazel</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Young</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,21 +266,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +310,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -274,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,10 +378,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,16 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,336 +568,429 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
     </row>

--- a/names_and_sign_ins.xlsx
+++ b/names_and_sign_ins.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64384\PycharmProjects\ELEC498\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15A57C-AAF6-4995-87FB-7227C12E2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +272,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +324,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -344,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -378,9 +393,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,14 +569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,10 +603,10 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,10 +617,10 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -613,10 +631,10 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -627,10 +645,10 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -641,10 +659,10 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -655,10 +673,10 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,10 +687,10 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -683,10 +701,10 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -697,10 +715,10 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -711,10 +729,10 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -725,10 +743,10 @@
         <v>44</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -739,10 +757,10 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -753,10 +771,10 @@
         <v>46</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -767,10 +785,10 @@
         <v>47</v>
       </c>
       <c r="D15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -781,10 +799,10 @@
         <v>48</v>
       </c>
       <c r="D16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -795,10 +813,10 @@
         <v>49</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -809,10 +827,10 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -823,10 +841,10 @@
         <v>51</v>
       </c>
       <c r="D19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -837,10 +855,10 @@
         <v>52</v>
       </c>
       <c r="D20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -851,10 +869,10 @@
         <v>53</v>
       </c>
       <c r="D21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -865,10 +883,10 @@
         <v>41</v>
       </c>
       <c r="D22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -879,10 +897,10 @@
         <v>43</v>
       </c>
       <c r="D23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -893,10 +911,10 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -907,10 +925,10 @@
         <v>55</v>
       </c>
       <c r="D25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -921,10 +939,10 @@
         <v>42</v>
       </c>
       <c r="D26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -935,10 +953,10 @@
         <v>56</v>
       </c>
       <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -949,10 +967,10 @@
         <v>57</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -963,10 +981,10 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -977,10 +995,10 @@
         <v>59</v>
       </c>
       <c r="D30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>60</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
